--- a/medicine/Psychotrope/Liste_de_plantes_psychotropes/Liste_de_plantes_psychotropes.xlsx
+++ b/medicine/Psychotrope/Liste_de_plantes_psychotropes/Liste_de_plantes_psychotropes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste contient les plantes psychotropes pour l'humain. Elle n'est pas exhaustive.
 </t>
@@ -511,11 +523,48 @@
           <t>Plantes psychotropes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Liste non exhaustive
-Angiospermes
-Acorus calamus, Aracaceae
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste non exhaustive
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_psychotropes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_psychotropes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Plantes psychotropes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Angiospermes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Acorus calamus, Aracaceae
 Anadenanthera peregrina Yopo, Fabaceae
 Anadenanthera peregrina Absinthe (plante), Fabaceae
 Atropa belladonna Belladone, Solanaceae
@@ -526,7 +575,7 @@
 Catha edulis khat, Celastraceae
 Cestrum laevigatum, dama de noite, Solanaceae
 Coleus scutellarioides, Plectranthe fausse-scutellaire, el nene, Lamiaceae
-Coryphanta compacta, Bakena, Hikuli, Wichuri, Cactaceae[1]
+Coryphanta compacta, Bakena, Hikuli, Wichuri, Cactaceae
 Datura sp., Poison de sorcière, Solanaceae
 Dendrobium nobile, Orchidaceae
 Echinopsis lageniformis,
@@ -545,7 +594,7 @@
 Oncidium cebolleta, cebolleta,
 Mucuna pruriens, pois mascate, cowhage, Fabaceae
 Papaver somniferum Pavot
-Pachycereus pecten-aboriginum, Cawe, Wichowaka, Cactaceae[1]
+Pachycereus pecten-aboriginum, Cawe, Wichowaka, Cactaceae
 Peucedanum japonicum,
 Phalaris arundinacea, Baldingère ou alpiste faux-roseau
 Pilosella officinarum
@@ -554,8 +603,8 @@
 Sceletium tortuosum
  Scirpus sp., Bakana, , Cyperaceae
 Tabernanthe iboga Iboga (Tabernanthe iboga)
-Tetrapterys mucronata, Caepi-Pinima, Malpighiaceae[1]
-Trichocentrum cebolleta, Cebolleta, Orchidaceae[1]
+Tetrapterys mucronata, Caepi-Pinima, Malpighiaceae
+Trichocentrum cebolleta, Cebolleta, Orchidaceae
 Trichocereus macrogonus et Trichocereus peruvianus, Cactaceae
 Turbina corymbosa Olioliuqui
 Virola sp., epena, nyakwana, Myristicaceae</t>
